--- a/Meilenstein 2/Dokumente/Use-Cases.xlsx
+++ b/Meilenstein 2/Dokumente/Use-Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B05ABA-5021-4500-AA65-CAFC29D155C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A64DBE-2452-418C-AB52-14CE1423E9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="0" windowWidth="18900" windowHeight="11055" xr2:uid="{223356CF-0705-4D30-AEB1-439070C18C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{223356CF-0705-4D30-AEB1-439070C18C12}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Name des Use Cases</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Die Drohne verwendet ihre Greif und Arbeitswerkzeuge um die Algen zu ernten</t>
   </si>
   <si>
-    <t>Drohne, Algen</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Algen greifen   </t>
   </si>
   <si>
@@ -88,6 +85,24 @@
   </si>
   <si>
     <t>Drohne hat die korrekten Werkzeuge ausgerüstet</t>
+  </si>
+  <si>
+    <t>geerntete Algen liegen im Sammelbehälter</t>
+  </si>
+  <si>
+    <t>Säen der Algen</t>
+  </si>
+  <si>
+    <t>Die Drohne verwendet ihre Greif und Arbeitswerkzeuge um die Algen zu säen</t>
+  </si>
+  <si>
+    <t>Drohne, Algen, Befestigungsclip</t>
+  </si>
+  <si>
+    <t>Algen sind sähbereit</t>
+  </si>
+  <si>
+    <t>Die Algenreste wurden entfernt</t>
   </si>
 </sst>
 </file>
@@ -130,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -263,16 +278,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -282,13 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,9 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -320,6 +383,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,119 +728,191 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="E5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="4" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="E11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="18" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="E15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
+      <c r="F15" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E11:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Meilenstein 2/Dokumente/Use-Cases.xlsx
+++ b/Meilenstein 2/Dokumente/Use-Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A64DBE-2452-418C-AB52-14CE1423E9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FD2B72-6571-4945-B52F-C362A705A6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{223356CF-0705-4D30-AEB1-439070C18C12}"/>
   </bookViews>
@@ -728,7 +728,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Meilenstein 2/Dokumente/Use-Cases.xlsx
+++ b/Meilenstein 2/Dokumente/Use-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FD2B72-6571-4945-B52F-C362A705A6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBE419-5322-4A3C-91B9-26DB45F902DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{223356CF-0705-4D30-AEB1-439070C18C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{223356CF-0705-4D30-AEB1-439070C18C12}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Name des Use Cases</t>
   </si>
@@ -103,6 +103,75 @@
   </si>
   <si>
     <t>Die Algenreste wurden entfernt</t>
+  </si>
+  <si>
+    <t>4.2 Alge weist Mängel auf</t>
+  </si>
+  <si>
+    <t>4.3 Alge wird in Mängel-Sammelbehälter gelegt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Algen aus Sammelbehälter nehmen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Algen an Leine befestigen              </t>
+  </si>
+  <si>
+    <t>3. Befestigungsclip aus Sammelbehälter nehmen und befestigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Algen loslassen                    </t>
+  </si>
+  <si>
+    <t>1.2 Nicht genügend Algen im Sammelbehälter</t>
+  </si>
+  <si>
+    <t>1.3 Abbruch des Säens</t>
+  </si>
+  <si>
+    <t>3.2 Nicht genügend Befestigunsclips im Sammelbehäter</t>
+  </si>
+  <si>
+    <t>3.3 Abbruch des Säens</t>
+  </si>
+  <si>
+    <t>Überprüfen der Algen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Drohne verwendet ihre Sensoren und Kameras um eventuelle Wachstumsschäden an den Algen zu erkennen </t>
+  </si>
+  <si>
+    <t>Drohne, Algen, Basisstation</t>
+  </si>
+  <si>
+    <t>1. Drohne zeichnet Kamera und Sensorabbild auf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Drohne übermittelt Daten an Basisstation              </t>
+  </si>
+  <si>
+    <t>3. Drohne erhält Aktorbefehle von Basisstation</t>
+  </si>
+  <si>
+    <t>1.2 Algen können von Kamera nicht erkannt werden</t>
+  </si>
+  <si>
+    <t>1.3 Erneuter Versuch bis Abbruchkriterium errreicht ist</t>
+  </si>
+  <si>
+    <t>2.2 Daten Können nicht an Basisstation übermittelt werden</t>
+  </si>
+  <si>
+    <t>2.3 Erneuter Versuch bis Abbruchkriterium errreicht ist</t>
+  </si>
+  <si>
+    <t>Drohne ist in Reichweite der Algen</t>
+  </si>
+  <si>
+    <t>Kontakt zur Basisstation kann hergestellt werdedn</t>
+  </si>
+  <si>
+    <t>Daten wurden an Basisstation übermittelt und eventuelle Aktionen wurden ausgeführt</t>
   </si>
 </sst>
 </file>
@@ -145,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -294,13 +363,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -313,25 +425,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -340,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,12 +443,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,49 +455,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,194 +811,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE8FD80-0B7D-4041-9161-8EEFAF2CB72D}">
-  <dimension ref="B1:F17"/>
+  <dimension ref="B1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="2:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="18" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="C36" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="11"/>
+      <c r="C39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="E10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="C40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="1" t="s">
+      <c r="C44" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    </row>
+    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="14"/>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-      <c r="E15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
+      <c r="C47" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Meilenstein 2/Dokumente/Use-Cases.xlsx
+++ b/Meilenstein 2/Dokumente/Use-Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCBE419-5322-4A3C-91B9-26DB45F902DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD0794-A0EE-4281-8CE0-51CB7A3EF0D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{223356CF-0705-4D30-AEB1-439070C18C12}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t xml:space="preserve">1. Algen greifen   </t>
   </si>
   <si>
-    <t xml:space="preserve"> 4. Algen in Sammelbehälter legen                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">2. Befestigungsclip entfernen                </t>
   </si>
   <si>
@@ -168,27 +165,23 @@
     <t>Drohne ist in Reichweite der Algen</t>
   </si>
   <si>
-    <t>Kontakt zur Basisstation kann hergestellt werdedn</t>
-  </si>
-  <si>
     <t>Daten wurden an Basisstation übermittelt und eventuelle Aktionen wurden ausgeführt</t>
+  </si>
+  <si>
+    <t>Kontakt zur Basisstation kann hergestellt werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Algen in Sammelbehälter legen                         </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,22 +192,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -348,51 +349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -435,66 +391,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -811,360 +762,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE8FD80-0B7D-4041-9161-8EEFAF2CB72D}">
-  <dimension ref="B1:D47"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12"/>
+    <col min="4" max="4" width="11.42578125" style="9"/>
+    <col min="5" max="5" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="2:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="17" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
-      <c r="C39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-      <c r="C45" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-      <c r="C46" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
